--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -316,7 +316,7 @@
     <t xml:space="preserve">収穫のクミロミ</t>
   </si>
   <si>
-    <t xml:space="preserve">포자 상태로 오빠와 함께 우주를 표류하다가, 먼 고대 시대에 이르바의 대지에 뿌리를 내린 대지모신. 태어나 성장하는 모든 생명을 차별하지 않고 사랑에 가득 찬 시선으로 지켜보고 있다. 신계의 파벌싸움에 말려들지 않기 위해, 다른 신들의 중재를 자주 맡기도 한다.</t>
+    <t xml:space="preserve">포자 상태로 손윗형제와 함께 우주를 표류하다가, 먼 고대 시대에 이르바의 대지에 뿌리를 내린 대지모신. 태어나 성장하는 모든 생명을 차별하지 않고 사랑에 가득 찬 시선으로 지켜보고 있다. 신계의 파벌싸움에 말려들지 않기 위해, 다른 신들의 중재를 자주 맡기도 한다.</t>
   </si>
   <si>
     <t xml:space="preserve">He and his brother drifted through the universe as spores and took root in the earth of Ylva in the ancient times. He loves and watches over all the lives that are born and grow up without any distinction. He is not involved in factional disputes in the divine world, and often acts as an intermediary between the other Gods and Goddesses.</t>
@@ -847,7 +847,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Religion.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">eyth</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Eyth of Void</t>
